--- a/Wastewater_Effluent_Filtration/BW30LE_pH8.5.xlsx
+++ b/Wastewater_Effluent_Filtration/BW30LE_pH8.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mangu\Desktop\Nir Water Lab\High-Recovery-Effluent-RO\Wastewater_Effluent_Filtration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F2B5B-0C6A-42D2-AF92-30458C088474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59093D92-DBA7-46B8-9387-A8DFDC124F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,6 +158,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" b="1"/>
+              <a:t>pH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" b="1" baseline="0"/>
+              <a:t> 8.5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IL" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2834,16 +2864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>555624</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>311149</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3160,8 +3190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
